--- a/src/test/resources/bluesource/dataProviders/ManageEmployees.xlsx
+++ b/src/test/resources/bluesource/dataProviders/ManageEmployees.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\git\Java-Automation-Framework\src\test\resources\bluesource\dataProviders\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="140" windowWidth="18200" windowHeight="6980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19690" windowHeight="8800" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SearchForEmployees" sheetId="1" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <sheet name="AddEmployee" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N28"/>
 </workbook>
 </file>
 
@@ -1037,7 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1497,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
